--- a/src/main/resources/excel/建筑信息导入模板.xlsx
+++ b/src/main/resources/excel/建筑信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="建筑信息" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>大楼名称</t>
   </si>
@@ -29,37 +29,31 @@
     <t>备注:红色为必填项,有下拉选项的部分请从下拉选项中选择,请勿修改选项</t>
   </si>
   <si>
-    <t>教学楼</t>
+    <t>电力局</t>
+  </si>
+  <si>
+    <t>设计楼:3</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>教学楼:1</t>
+  </si>
+  <si>
+    <t>综合楼:2</t>
+  </si>
+  <si>
+    <t>科研楼:4</t>
+  </si>
+  <si>
+    <t>实验楼:5</t>
+  </si>
+  <si>
+    <t>教学楼:6</t>
   </si>
   <si>
     <t>职工宿舍:7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>女生宿舍楼</t>
-  </si>
-  <si>
-    <t>设计楼:3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>教学楼:1</t>
-  </si>
-  <si>
-    <t>综合楼:2</t>
-  </si>
-  <si>
-    <t>科研楼:4</t>
-  </si>
-  <si>
-    <t>实验楼:5</t>
-  </si>
-  <si>
-    <t>教学楼:6</t>
   </si>
   <si>
     <t>学生宿舍:8</t>
@@ -71,8 +65,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -97,11 +91,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,17 +127,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,13 +143,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,11 +156,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,8 +187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,67 +197,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,25 +251,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,157 +383,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,30 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,17 +486,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -548,153 +507,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,15 +1027,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="3" width="10" customWidth="1"/>
     <col min="5" max="5" width="96" customWidth="1"/>
@@ -1073,32 +1067,21 @@
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" ht="25" customHeight="1" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="提示信息" error="请选择下拉框中的内容!" sqref="B2:B6000">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="提示信息" error="请选择下拉框中的内容!" sqref="B2:B5999">
       <formula1>typelist!$B$1:$B$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="提示信息" error="请选择下拉框中的内容!" sqref="C2:C6000">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="提示信息" error="请选择下拉框中的内容!" sqref="C2:C5999">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1120,42 +1103,42 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
